--- a/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2085,17 +2085,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.72265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="128.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2104,26 +2104,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.59765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.2265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -856,7 +856,7 @@
     <t>AMB | IMP | EMER</t>
   </si>
   <si>
-    <t>See mapping from BFS Medizinische Statistik [BFS Encounter Class to FHIR mapping](http://fhir.ch/ig/ch-core/ConceptMap/bfs-encounter-class-to-fhir)</t>
+    <t>See mapping from BFS Medizinische Statistik [BFS Encounter Class to FHIR mapping](http://fhir.ch/ig/ch-term/ConceptMap-bfs-encounter-class-to-fhir.html)</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-orf/ValueSet/ch-orf-vs-encounterclass</t>
@@ -2085,17 +2085,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="128.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2104,26 +2104,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.59765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
     <t>Identifier(s) by which this encounter is known.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -989,7 +989,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Group)
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -2085,17 +2085,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="165.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2104,26 +2104,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.59765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,7 +369,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -646,7 +646,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -743,7 +743,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -931,7 +931,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -955,7 +955,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1017,7 +1017,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1043,7 +1043,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1153,7 +1153,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1234,7 +1234,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1252,7 +1252,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1287,7 +1287,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1318,7 +1318,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1340,7 +1340,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1535,7 +1535,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1556,7 +1556,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1577,7 +1577,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1702,7 +1702,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -3152,7 +3152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>238</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>264</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>309</v>
       </c>
@@ -12208,12 +12208,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN89">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
